--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -1,76 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">transaction_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="18"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -78,50 +80,588 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF18A303"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" strike="noStrike">
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1800" b="1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:rPr>
+              <a:t>Discounted Prices</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill>
+              <a:srgbClr val="18a303"/>
+            </a:solidFill>
+            <a:ln w="0">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <invertIfNegative val="0"/>
+          <dLbls>
+            <txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </txPr>
+            <dLblPos val="outEnd"/>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showLeaderLines val="1"/>
+          </dLbls>
+          <val>
+            <numRef>
+              <f>Planilha1!$D$2:$D$4</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="3"/>
+                <pt idx="0">
+                  <v>5.355</v>
+                </pt>
+                <pt idx="1">
+                  <v>6.255</v>
+                </pt>
+                <pt idx="2">
+                  <v>7.155</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <overlap val="0"/>
+        <axId val="27630472"/>
+        <axId val="52354252"/>
+      </barChart>
+      <catAx>
+        <axId val="27630472"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" strike="noStrike">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Products</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </title>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="52354252"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="52354252"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" strike="noStrike">
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1000" b="1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="DejaVu Sans"/>
+                  </a:rPr>
+                  <a:t>Prices</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+        </title>
+        <numFmt formatCode="General" sourceLinked="0"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="DejaVu Sans"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </txPr>
+        <crossAx val="27630472"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="DejaVu Sans"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Discounted Prices</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Planilha2'!$D$2:$D$4</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Products</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Prices</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>0</col>
+      <colOff>623880</colOff>
+      <row>20</row>
+      <rowOff>18720</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>331200</colOff>
+      <row>36</row>
+      <rowOff>124560</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -231,73 +771,190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>transaction_id</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="4" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>5.355</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="4" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>6.255</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="4" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>7.155</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Página &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.92"/>
+    <col width="12.84" customWidth="1" style="4" min="1" max="1"/>
+    <col width="9.92" customWidth="1" style="4" min="2" max="2"/>
+    <col width="7.83" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15.34" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>transaction_id</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Discounted Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="4" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C2" s="5" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>5.355</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="4" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="C3" s="5" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>6.255</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="4" t="n">
         <v>1003</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="5" t="n">
         <v>7.95</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>7.155</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Página &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>